--- a/App/LCFC-ScoutingApp/back-end/Report.xlsx
+++ b/App/LCFC-ScoutingApp/back-end/Report.xlsx
@@ -16,7 +16,7 @@
     <t>Fixture</t>
   </si>
   <si>
-    <t>Atletico Madrid vs Liverpool</t>
+    <t>Chelsea vs Arsenal</t>
   </si>
   <si>
     <t>Striker</t>
@@ -25,13 +25,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Diego Costa</t>
+    <t>Sean Raisi</t>
   </si>
   <si>
     <t>Height</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.7</t>
   </si>
   <si>
     <t>Position</t>
@@ -40,36 +40,39 @@
     <t>Playing Against</t>
   </si>
   <si>
-    <t>Liverpool</t>
+    <t>Arsenal</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>12/03/2020</t>
+    <t>22/01/18</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>30</t>
+    <t>19</t>
   </si>
   <si>
     <t>Club</t>
   </si>
   <si>
-    <t>Atletico Madrid</t>
+    <t>Chelsea</t>
   </si>
   <si>
     <t>H/T</t>
   </si>
   <si>
-    <t>0-1</t>
+    <t>2-0</t>
   </si>
   <si>
     <t>F/T</t>
   </si>
   <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>Scout</t>
   </si>
   <si>
@@ -82,7 +85,7 @@
     <t>Hold Up Play</t>
   </si>
   <si>
-    <t>5</t>
+    <t>9</t>
   </si>
   <si>
     <t>Receiving Under Pressure</t>
@@ -145,70 +148,67 @@
     <t>Runs Off The Shoulder</t>
   </si>
   <si>
+    <t>Running The Channels</t>
+  </si>
+  <si>
+    <t>Movement Off The Ball</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Stength/Planning</t>
+  </si>
+  <si>
+    <t>Work Rate</t>
+  </si>
+  <si>
+    <t>Jump/Spring</t>
+  </si>
+  <si>
+    <t>Psychological</t>
+  </si>
+  <si>
+    <t>Bravery</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Team Work</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Response To Criticsm</t>
+  </si>
+  <si>
+    <t>Reaction To Mistakes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Running The Channels</t>
-  </si>
-  <si>
-    <t>Movement Off The Ball</t>
-  </si>
-  <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>Pace</t>
-  </si>
-  <si>
-    <t>Mobility</t>
-  </si>
-  <si>
-    <t>Stength/Planning</t>
-  </si>
-  <si>
-    <t>Work Rate</t>
-  </si>
-  <si>
-    <t>Jump/Spring</t>
-  </si>
-  <si>
-    <t>Psychological</t>
-  </si>
-  <si>
-    <t>Bravery</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>Team Work</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Response To Criticsm</t>
-  </si>
-  <si>
-    <t>Reaction To Mistakes</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Nasty</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
-    <t>Costa, Diego was scouted playing for Atletico Madrid on 12/03/2020. Costa, Diego performed to grade B with an average score of 0 showing some outstanding attributes, hold up play (5), receiving under pressure (5), link up play (5), right foot (5), left foot (5), one v one (5), aerial ability (5), finishing (5), right foot shooting (5), left foot shooting (5), crossing (5), one v two (5), tackling (5), pressing (5), recovering into shape (5), agility (5), dropping into space (5), jump (5).</t>
+    <t>Raisi, Sean was scouted playing for Chelsea on 22/01/18. Raisi, Sean performed to grade A with an average score of 9 showing some outstanding attributes.</t>
   </si>
   <si>
     <t>Player Rating</t>
   </si>
   <si>
-    <t>B</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M7" s="0"/>
     </row>
@@ -365,32 +365,32 @@
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="N8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="0"/>
       <c r="P8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="0"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
@@ -407,231 +407,231 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="0"/>
       <c r="L13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>48</v>
       </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>54</v>
       </c>
       <c r="Q13" s="0"/>
       <c r="R13" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14" s="0"/>
       <c r="L14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Q14" s="0"/>
       <c r="R14" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="0"/>
       <c r="L15" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>50</v>
       </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>56</v>
       </c>
       <c r="Q15" s="0"/>
       <c r="R15" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>45</v>
       </c>
       <c r="K16" s="0"/>
       <c r="L16" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>51</v>
       </c>
       <c r="N16" s="0"/>
       <c r="O16" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>57</v>
       </c>
       <c r="Q16" s="0"/>
       <c r="R16" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>46</v>
       </c>
       <c r="K17" s="0"/>
       <c r="L17" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>52</v>
       </c>
       <c r="N17" s="0"/>
       <c r="O17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>58</v>
       </c>
       <c r="Q17" s="0"/>
       <c r="R17" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:18">
       <c r="D18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>59</v>
       </c>
       <c r="Q18" s="0"/>
       <c r="R18" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:18">

--- a/App/LCFC-ScoutingApp/back-end/Report.xlsx
+++ b/App/LCFC-ScoutingApp/back-end/Report.xlsx
@@ -11,27 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Fixture</t>
   </si>
   <si>
-    <t>LFC vs India</t>
-  </si>
-  <si>
-    <t>Centre Back</t>
+    <t>Swansea vs Charlton FC</t>
+  </si>
+  <si>
+    <t>Striker</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email test</t>
+    <t>Rhian Brewster</t>
   </si>
   <si>
     <t>Height</t>
   </si>
   <si>
-    <t>324</t>
+    <t>5.9</t>
   </si>
   <si>
     <t>Position</t>
@@ -40,25 +40,25 @@
     <t>Playing Against</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Charlton FC</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>21/04/2019</t>
+    <t>21/05/209</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>34</t>
+    <t>18</t>
   </si>
   <si>
     <t>Club</t>
   </si>
   <si>
-    <t>LFC</t>
+    <t>Swansea</t>
   </si>
   <si>
     <t>H/T</t>
@@ -76,85 +76,91 @@
     <t>Scout</t>
   </si>
   <si>
-    <t>jrb43</t>
-  </si>
-  <si>
-    <t>General</t>
+    <t>BW343</t>
+  </si>
+  <si>
+    <t>In Possession</t>
+  </si>
+  <si>
+    <t>Hold Up Play</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Receiving Under Pressure</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Link Up Play</t>
+  </si>
+  <si>
+    <t>Right Foot</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Left Foot</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Attacking</t>
+  </si>
+  <si>
+    <t>1v1</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>Short Passing</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Long Passing</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Carrying the Ball Forward</t>
+    <t>Aerial Ability</t>
+  </si>
+  <si>
+    <t>Finishing</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Right Foot Shooting</t>
+  </si>
+  <si>
+    <t>Left Foot Shooting</t>
+  </si>
+  <si>
+    <t>Crossing</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Defending</t>
+  </si>
+  <si>
+    <t>1v2</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Right Foot</t>
-  </si>
-  <si>
-    <t>Left Foot</t>
-  </si>
-  <si>
-    <t>Attacking</t>
-  </si>
-  <si>
-    <t>Threat At Set Plays</t>
-  </si>
-  <si>
-    <t>Aerial Ability</t>
-  </si>
-  <si>
-    <t>Defending</t>
-  </si>
-  <si>
-    <t>1 v 1</t>
-  </si>
-  <si>
     <t>Tackling</t>
   </si>
   <si>
-    <t>Marking</t>
-  </si>
-  <si>
-    <t>Reading Game</t>
-  </si>
-  <si>
-    <t>Sensing Danger</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Defending Crosses</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Pressing</t>
   </si>
   <si>
-    <t>Recovery Runs</t>
-  </si>
-  <si>
-    <t>Tracking Runners</t>
+    <t>Recovering Into Shape</t>
   </si>
   <si>
     <t>Tactical</t>
@@ -163,33 +169,36 @@
     <t>Agility</t>
   </si>
   <si>
-    <t>Angles To Receive</t>
-  </si>
-  <si>
-    <t>Distances</t>
-  </si>
-  <si>
-    <t>Recovering To Shape</t>
+    <t>Dropping Into Space</t>
+  </si>
+  <si>
+    <t>Runs Off The Shoulder</t>
+  </si>
+  <si>
+    <t>Running The Channels</t>
+  </si>
+  <si>
+    <t>Movement Off The Ball</t>
   </si>
   <si>
     <t>Physical</t>
   </si>
   <si>
-    <t>Pace When Turning</t>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Stength/Planning</t>
+  </si>
+  <si>
+    <t>Work Rate</t>
   </si>
   <si>
     <t>Jump/Spring</t>
   </si>
   <si>
-    <t>Mobility</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Aggression</t>
-  </si>
-  <si>
     <t>Psychological</t>
   </si>
   <si>
@@ -205,22 +214,28 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>Response To Criticism</t>
+    <t>Response To Criticsm</t>
   </si>
   <si>
     <t>Reaction To Mistakes</t>
   </si>
   <si>
+    <t>Grand Total Marks (340)</t>
+  </si>
+  <si>
+    <t>Overall % Score</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>dsfs</t>
+    <t>On Loan From Liverpool FC</t>
   </si>
   <si>
     <t>Summary</t>
   </si>
   <si>
-    <t>test, Email was scouted playing for LFC on 21/04/2019. test, Email performed to grade A with an average score of 4 showing some outstanding attributes, recieving under pressure (7), long passing (8), carrying the ball forward (9), threat at set plays (7), attacking ariel ability (8), defending ariel ability (9), tackling (8), marking (7), defending crosses (6), pressing (7), tracking runners (8), angles to recieve (6), distances (7), pace when turning (8), strength (7), team work (7), reaction to mistake (7)..</t>
+    <t>Brewster, Rhian was scouted playing for Swansea on 21/05/209. Brewster, Rhian performed to grade A with an average score of 3 showing some outstanding attributes, receiving under pressure (8), right foot (6), one v one (7), finishing (5), one v two (9), pressing (8), agility (6), runs off the shoulder (7), movement off the ball (5), pace (7), work rate (6), jump (7), teamwork (7), communication (6), reaction to mistakes (6).</t>
   </si>
   <si>
     <t>Player Rating</t>
@@ -258,15 +273,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyFont="1" fontId="0"/>
+    <xf applyFont="1" fontId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -285,10 +303,10 @@
       <c r="L1" s="0"/>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="0"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="0" t="s">
         <v>3</v>
       </c>
@@ -308,8 +326,8 @@
       <c r="M4" s="0"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="0" t="s">
         <v>5</v>
       </c>
@@ -329,8 +347,8 @@
       <c r="M5" s="0"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="0" t="s">
         <v>7</v>
       </c>
@@ -350,8 +368,8 @@
       <c r="M6" s="0"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
@@ -371,8 +389,8 @@
       <c r="M7" s="0"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
@@ -398,27 +416,27 @@
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="0"/>
       <c r="R12" s="0"/>
@@ -432,39 +450,39 @@
         <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="0"/>
       <c r="L13" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="0"/>
       <c r="R13" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -476,39 +494,39 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14" s="0"/>
       <c r="L14" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N14" s="0"/>
       <c r="O14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="0"/>
       <c r="R14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -517,265 +535,263 @@
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K15" s="0"/>
       <c r="L15" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="0"/>
       <c r="R15" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H16" s="0"/>
       <c r="I16" s="0" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" s="0"/>
       <c r="L16" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N16" s="0"/>
       <c r="O16" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="0"/>
       <c r="R16" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N17" s="0"/>
       <c r="O17" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="0"/>
       <c r="R17" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="4:18">
+      <c r="D18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9">
-      <c r="G19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9">
-      <c r="G21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9">
-      <c r="G22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
+      <c r="C24" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>53.33333333333333</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11">
+      <c r="G26" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
+      <c r="K26" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12">
+      <c r="G28" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
+      <c r="K28" s="0">
+        <f>AVERAGE(C24,F24,I24,L24,O24,R24)</f>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -796,7 +812,9 @@
       <c r="R29" s="0"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
@@ -815,19 +833,143 @@
       <c r="Q30" s="0"/>
       <c r="R30" s="0"/>
     </row>
-    <row r="32" spans="4:8">
-      <c r="D32" s="0" t="s">
-        <v>70</v>
-      </c>
+    <row r="31" spans="1:18">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
-      <c r="H32" s="0" t="s">
-        <v>71</v>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="C4:D8"/>
     <mergeCell ref="E4:F4"/>
@@ -856,26 +998,24 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
@@ -888,11 +1028,14 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="A25:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A29:R30"/>
-    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="A30:R32"/>
+    <mergeCell ref="A33:R33"/>
+    <mergeCell ref="A34:R36"/>
+    <mergeCell ref="D37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
